--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{599B17D6-98E2-47B7-A553-93BE7D5625DF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A487B7BE-F934-4F47-8BDB-90951C8BB5C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Выберите нужный случай и введите его номер: </t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>case_connection</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Учащаяся: </t>
   </si>
 </sst>
 </file>
@@ -428,9 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -479,6 +493,9 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -489,6 +506,17 @@
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A487B7BE-F934-4F47-8BDB-90951C8BB5C1}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60344CF-3E8F-4CB3-9A45-2E9BEC71AB01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Выберите нужный случай и введите его номер: </t>
-  </si>
-  <si>
-    <t>Такого номера нет. Введите его заново:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы выбрали номер </t>
-  </si>
-  <si>
-    <t xml:space="preserve">. Учащийся: </t>
-  </si>
-  <si>
     <t>Случай связан с</t>
   </si>
   <si>
@@ -87,7 +75,19 @@
     <t>Ж</t>
   </si>
   <si>
-    <t xml:space="preserve">. Учащаяся: </t>
+    <t>Учащийся</t>
+  </si>
+  <si>
+    <t>Учащаяся</t>
+  </si>
+  <si>
+    <t>Выберите нужный случай и введите его номер</t>
+  </si>
+  <si>
+    <t>Такого номера нет. Введите его заново</t>
+  </si>
+  <si>
+    <t>Вы выбрали номер</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,68 +455,68 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60344CF-3E8F-4CB3-9A45-2E9BEC71AB01}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBA8C7E-02CF-406D-837E-0EA6AFEA3342}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -88,15 +88,77 @@
   </si>
   <si>
     <t>Вы выбрали номер</t>
+  </si>
+  <si>
+    <t>graph_1</t>
+  </si>
+  <si>
+    <t>support_modes</t>
+  </si>
+  <si>
+    <t>select_mode</t>
+  </si>
+  <si>
+    <t>causal_relationship</t>
+  </si>
+  <si>
+    <t>incidents_graphs</t>
+  </si>
+  <si>
+    <t>choose_a_graph</t>
+  </si>
+  <si>
+    <t>select_a_number</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>all_students</t>
+  </si>
+  <si>
+    <t>Количество инцидентов от числа всех учащихся</t>
+  </si>
+  <si>
+    <t>Программа поддерживает несколько режимов работы</t>
+  </si>
+  <si>
+    <t>Выберите режим</t>
+  </si>
+  <si>
+    <t>Причинно-следственная связь</t>
+  </si>
+  <si>
+    <t>Графики инцидентов</t>
+  </si>
+  <si>
+    <t>Выберите график</t>
+  </si>
+  <si>
+    <t>Выберите номер</t>
+  </si>
+  <si>
+    <t>Инциденты</t>
+  </si>
+  <si>
+    <t>Все учащиеся</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,8 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +584,78 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBA8C7E-02CF-406D-837E-0EA6AFEA3342}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7AC9CC0-2ECC-4453-A38A-023D1C530A9B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Все учащиеся</t>
+  </si>
+  <si>
+    <t>restart_program</t>
+  </si>
+  <si>
+    <t>Перезапустите программу.</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,6 +662,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7AC9CC0-2ECC-4453-A38A-023D1C530A9B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D60818E-856D-495C-8970-DDF17AB296BF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Перезапустите программу.</t>
+  </si>
+  <si>
+    <t>start_text</t>
+  </si>
+  <si>
+    <t>Причинно-следственные связи в школе, версия</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +676,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D60818E-856D-495C-8970-DDF17AB296BF}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05B28CB-1938-46E0-A2DE-80DC93231561}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Причинно-следственные связи в школе, версия</t>
+  </si>
+  <si>
+    <t>all_causes</t>
+  </si>
+  <si>
+    <t>Всего инцидентов</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>Параллель</t>
+  </si>
+  <si>
+    <t>graph_2</t>
+  </si>
+  <si>
+    <t>Зависимость инцидентов от параллели</t>
   </si>
 </sst>
 </file>
@@ -517,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,6 +702,30 @@
         <v>39</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05B28CB-1938-46E0-A2DE-80DC93231561}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264A4F33-A407-492D-B760-3895CA2DCE91}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Зависимость инцидентов от параллели</t>
+  </si>
+  <si>
+    <t>graph_3</t>
+  </si>
+  <si>
+    <t>Корреляционный график</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +732,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264A4F33-A407-492D-B760-3895CA2DCE91}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54FBFD5-B2B7-4EBF-A27E-9731489C09CB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>Корреляционный график</t>
+  </si>
+  <si>
+    <t>lang_choice</t>
+  </si>
+  <si>
+    <t>Смена языка</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Выход</t>
   </si>
 </sst>
 </file>
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,6 +752,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54FBFD5-B2B7-4EBF-A27E-9731489C09CB}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C810572-C979-4373-ADA9-5764DBAC4B90}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -190,6 +190,72 @@
   </si>
   <si>
     <t>Выход</t>
+  </si>
+  <si>
+    <t>Случай</t>
+  </si>
+  <si>
+    <t>is_fight</t>
+  </si>
+  <si>
+    <t>Драка</t>
+  </si>
+  <si>
+    <t>в классе</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>В драке участвовал</t>
+  </si>
+  <si>
+    <t>ицидентов</t>
+  </si>
+  <si>
+    <t>all_participants</t>
+  </si>
+  <si>
+    <t>Всего в драке принимало участие</t>
+  </si>
+  <si>
+    <t>учащихся</t>
+  </si>
+  <si>
+    <t>cause_1</t>
+  </si>
+  <si>
+    <t>cause_2</t>
+  </si>
+  <si>
+    <t>Инцидент</t>
+  </si>
+  <si>
+    <t>В инциденте принимало участие</t>
+  </si>
+  <si>
+    <t>students_in_incident</t>
+  </si>
+  <si>
+    <t>personal_cause</t>
+  </si>
+  <si>
+    <t>Персональный случай</t>
+  </si>
+  <si>
+    <t>с которым было</t>
+  </si>
+  <si>
+    <t>about_personal_cause</t>
+  </si>
+  <si>
+    <t>Что-то произошло с учеником</t>
+  </si>
+  <si>
+    <t>класса</t>
+  </si>
+  <si>
+    <t>Никаких связей с другими случаями нет</t>
   </si>
 </sst>
 </file>
@@ -553,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,7 +778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -720,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -728,7 +794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -736,7 +802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -744,7 +810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -752,7 +818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -760,7 +826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -768,7 +834,93 @@
         <v>51</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C810572-C979-4373-ADA9-5764DBAC4B90}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EF1D59-28CD-4D35-B585-660BD7B980AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>В драке участвовал</t>
   </si>
   <si>
-    <t>ицидентов</t>
-  </si>
-  <si>
     <t>all_participants</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Никаких связей с другими случаями нет</t>
+  </si>
+  <si>
+    <t>инцидентов</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -861,62 +861,62 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EF1D59-28CD-4D35-B585-660BD7B980AF}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92117E5-4D9F-41E2-8E52-496FA479F5F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>инцидентов</t>
+  </si>
+  <si>
+    <t>back_button</t>
+  </si>
+  <si>
+    <t>Назад</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,6 +925,14 @@
         <v>72</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92117E5-4D9F-41E2-8E52-496FA479F5F5}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965F1329-7B91-49EE-904A-3B37149D1064}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Назад</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Настройки</t>
   </si>
 </sst>
 </file>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,6 +939,14 @@
         <v>75</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965F1329-7B91-49EE-904A-3B37149D1064}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C679713-2D17-44D6-95C8-7C7CC7A51246}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -268,6 +268,69 @@
   </si>
   <si>
     <t>Настройки</t>
+  </si>
+  <si>
+    <t>dataset_settings</t>
+  </si>
+  <si>
+    <t>Настройки датасета</t>
+  </si>
+  <si>
+    <t>column_number_in_dataset</t>
+  </si>
+  <si>
+    <t>Номер столбца в датасете</t>
+  </si>
+  <si>
+    <t>current_dataset</t>
+  </si>
+  <si>
+    <t>Текущий датасет</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Изменить</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>time_causes</t>
+  </si>
+  <si>
+    <t>previous_causes</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Буква</t>
+  </si>
+  <si>
+    <t>Время инцидента</t>
+  </si>
+  <si>
+    <t>Количество предыдущих инцидентов</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>broken_dataset</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Неправильный датасет</t>
   </si>
 </sst>
 </file>
@@ -631,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
@@ -947,6 +1010,94 @@
         <v>77</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C679713-2D17-44D6-95C8-7C7CC7A51246}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11F2881-CC43-4290-B82C-C6B31039922F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -153,9 +153,6 @@
     <t>start_text</t>
   </si>
   <si>
-    <t>Причинно-следственные связи в школе, версия</t>
-  </si>
-  <si>
     <t>all_causes</t>
   </si>
   <si>
@@ -331,6 +328,33 @@
   </si>
   <si>
     <t>Неправильный датасет</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>О программе</t>
+  </si>
+  <si>
+    <t>about_program</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>Исходный код</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Причинно-следственные связи в школе</t>
   </si>
 </sst>
 </file>
@@ -694,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,196 +882,196 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,47 +1079,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11F2881-CC43-4290-B82C-C6B31039922F}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBEB560-5041-4307-9552-1FA85AE64933}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -355,6 +355,60 @@
   </si>
   <si>
     <t>Причинно-следственные связи в школе</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>invalid_path_dataset</t>
+  </si>
+  <si>
+    <t>invalid_parameters_values</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>successfully_applied</t>
+  </si>
+  <si>
+    <t>Предупреждение</t>
+  </si>
+  <si>
+    <t>Датасет не определен. Пожалуйста, выберите набор данных и его характеристики.</t>
+  </si>
+  <si>
+    <t>Характеристики датасета недопустимы. Пожалуйста, выберите характеристики набора данных.</t>
+  </si>
+  <si>
+    <t>Применить</t>
+  </si>
+  <si>
+    <t>Успех</t>
+  </si>
+  <si>
+    <t>Успешно применено</t>
+  </si>
+  <si>
+    <t>Incorrect_column_values</t>
+  </si>
+  <si>
+    <t>Incorrect_column_values_or_dataset</t>
+  </si>
+  <si>
+    <t>undefined_dataset</t>
+  </si>
+  <si>
+    <t>Неправильные значения столбцов</t>
+  </si>
+  <si>
+    <t>Неправильные значения столбцов или неправильный датасет</t>
+  </si>
+  <si>
+    <t>Неопределенный датасет</t>
   </si>
 </sst>
 </file>
@@ -718,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,6 +1208,78 @@
         <v>104</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBEB560-5041-4307-9552-1FA85AE64933}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05954AE-8A8A-40E9-B866-A7847B14FA45}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Неопределенный датасет</t>
+  </si>
+  <si>
+    <t>graph_boxplot</t>
+  </si>
+  <si>
+    <t>Ящичковая диаграмма</t>
   </si>
 </sst>
 </file>
@@ -772,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,6 +1286,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05954AE-8A8A-40E9-B866-A7847B14FA45}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C543C538-24C6-4388-9E16-E54C00400FCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Вы выбрали номер</t>
   </si>
   <si>
-    <t>graph_1</t>
-  </si>
-  <si>
     <t>support_modes</t>
   </si>
   <si>
@@ -102,12 +99,6 @@
     <t>causal_relationship</t>
   </si>
   <si>
-    <t>incidents_graphs</t>
-  </si>
-  <si>
-    <t>choose_a_graph</t>
-  </si>
-  <si>
     <t>select_a_number</t>
   </si>
   <si>
@@ -165,15 +156,9 @@
     <t>Параллель</t>
   </si>
   <si>
-    <t>graph_2</t>
-  </si>
-  <si>
     <t>Зависимость инцидентов от параллели</t>
   </si>
   <si>
-    <t>graph_3</t>
-  </si>
-  <si>
     <t>Корреляционный график</t>
   </si>
   <si>
@@ -411,10 +396,25 @@
     <t>Неопределенный датасет</t>
   </si>
   <si>
-    <t>graph_boxplot</t>
-  </si>
-  <si>
     <t>Ящичковая диаграмма</t>
+  </si>
+  <si>
+    <t>chart_boxplot</t>
+  </si>
+  <si>
+    <t>chart_3</t>
+  </si>
+  <si>
+    <t>chart_2</t>
+  </si>
+  <si>
+    <t>choose_a_chart</t>
+  </si>
+  <si>
+    <t>chart_1</t>
+  </si>
+  <si>
+    <t>incidents_chart</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:B58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,279 +859,279 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,159 +1139,159 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C543C538-24C6-4388-9E16-E54C00400FCE}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F4859F6-5EA3-4CE7-94C4-4D0699FA4A42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>incidents_chart</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>выбрано</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,6 +1300,14 @@
         <v>120</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F4859F6-5EA3-4CE7-94C4-4D0699FA4A42}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9767C9B7-C6AE-43AB-8CB7-BA8F38F42271}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>выбрано</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Время</t>
   </si>
 </sst>
 </file>
@@ -784,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,6 +1314,14 @@
         <v>128</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9767C9B7-C6AE-43AB-8CB7-BA8F38F42271}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF9CB02-FCFA-4B70-A6E3-27D92AEDB003}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -427,6 +427,24 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>Расположение набора данных</t>
+  </si>
+  <si>
+    <t>dataset_location</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>Колонка</t>
   </si>
 </sst>
 </file>
@@ -790,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,6 +1340,30 @@
         <v>130</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF9CB02-FCFA-4B70-A6E3-27D92AEDB003}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF64189-AE62-4C6A-B671-2CA09F3155A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>Колонка</t>
+  </si>
+  <si>
+    <t>Набор данных не определен</t>
+  </si>
+  <si>
+    <t>dataset_not_defined</t>
   </si>
 </sst>
 </file>
@@ -808,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,6 +1370,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF64189-AE62-4C6A-B671-2CA09F3155A9}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35FA535A-7DB9-4B92-B441-6BB5C8B04A2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -255,21 +255,12 @@
     <t>dataset_settings</t>
   </si>
   <si>
-    <t>Настройки датасета</t>
-  </si>
-  <si>
     <t>column_number_in_dataset</t>
   </si>
   <si>
-    <t>Номер столбца в датасете</t>
-  </si>
-  <si>
     <t>current_dataset</t>
   </si>
   <si>
-    <t>Текущий датасет</t>
-  </si>
-  <si>
     <t>change</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>Ошибка</t>
   </si>
   <si>
-    <t>Неправильный датасет</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -363,12 +351,6 @@
     <t>Предупреждение</t>
   </si>
   <si>
-    <t>Датасет не определен. Пожалуйста, выберите набор данных и его характеристики.</t>
-  </si>
-  <si>
-    <t>Характеристики датасета недопустимы. Пожалуйста, выберите характеристики набора данных.</t>
-  </si>
-  <si>
     <t>Применить</t>
   </si>
   <si>
@@ -390,12 +372,6 @@
     <t>Неправильные значения столбцов</t>
   </si>
   <si>
-    <t>Неправильные значения столбцов или неправильный датасет</t>
-  </si>
-  <si>
-    <t>Неопределенный датасет</t>
-  </si>
-  <si>
     <t>Ящичковая диаграмма</t>
   </si>
   <si>
@@ -451,6 +427,30 @@
   </si>
   <si>
     <t>dataset_not_defined</t>
+  </si>
+  <si>
+    <t>Настройки набора данных</t>
+  </si>
+  <si>
+    <t>Номер столбца в наборе данных</t>
+  </si>
+  <si>
+    <t>Текущий набор данных</t>
+  </si>
+  <si>
+    <t>Неправильный набор данных</t>
+  </si>
+  <si>
+    <t>Набор данных не определен. Пожалуйста, выберите набор данных и его характеристики.</t>
+  </si>
+  <si>
+    <t>Характеристики набора данных недопустимы. Пожалуйста, выберите другие значения.</t>
+  </si>
+  <si>
+    <t>Неправильные значения столбцов или неправильный набор данных</t>
+  </si>
+  <si>
+    <t>Неопределенный набор данных</t>
   </si>
 </sst>
 </file>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +895,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -978,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -1135,39 +1135,39 @@
         <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1175,207 +1175,207 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35FA535A-7DB9-4B92-B441-6BB5C8B04A2F}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{068B292A-0F95-4A81-8CBA-CF26802BAE32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -451,6 +451,42 @@
   </si>
   <si>
     <t>Неопределенный набор данных</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>incident_in_class</t>
+  </si>
+  <si>
+    <t>Инцидент в классе</t>
+  </si>
+  <si>
+    <t>Информация об инциденте</t>
+  </si>
+  <si>
+    <t>Информация об учащемся</t>
+  </si>
+  <si>
+    <t>info_about_student</t>
+  </si>
+  <si>
+    <t>info_about_incident</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -814,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,6 +1414,54 @@
         <v>129</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_ru-RU.xlsx
+++ b/languages/strings_ru-RU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{068B292A-0F95-4A81-8CBA-CF26802BAE32}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{2F2B6140-4439-4539-82F7-D2BB9EBD4D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822200AB-98F8-4B49-8891-95408C9AAFB6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28185F88-E604-4511-9B2D-98997E3FA902}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="161">
   <si>
     <t>Случай связан с</t>
   </si>
@@ -487,6 +487,36 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>latest_update_already_installed</t>
+  </si>
+  <si>
+    <t>Последнее обновление уже установлено!</t>
+  </si>
+  <si>
+    <t>update_available</t>
+  </si>
+  <si>
+    <t>check_update_error</t>
+  </si>
+  <si>
+    <t>Ошибка проверки обновления.</t>
+  </si>
+  <si>
+    <t>Доступно обновление</t>
+  </si>
+  <si>
+    <t>update_available_text</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>Обновления</t>
+  </si>
+  <si>
+    <t>Доступно обновление! Скачайте обновлённую версию из</t>
   </si>
 </sst>
 </file>
@@ -850,15 +880,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F386AA84-9728-4611-BB86-86E60D0B55CA}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
@@ -1462,6 +1492,46 @@
         <v>150</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
